--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 SC.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 SC.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ASTR-101</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>7.50%</t>
   </si>
   <si>
+    <t>6.98%</t>
+  </si>
+  <si>
     <t>ASTR-102</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>4.00%</t>
   </si>
   <si>
+    <t>5.66%</t>
+  </si>
+  <si>
     <t>BIOL-112</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>3.23%</t>
   </si>
   <si>
+    <t>1.06%</t>
+  </si>
+  <si>
     <t>BIOL-206</t>
   </si>
   <si>
@@ -196,6 +208,9 @@
     <t>2.33%</t>
   </si>
   <si>
+    <t>3.73%</t>
+  </si>
+  <si>
     <t>BIOL-320</t>
   </si>
   <si>
@@ -214,6 +229,9 @@
     <t>13.83%</t>
   </si>
   <si>
+    <t>1.05%</t>
+  </si>
+  <si>
     <t>BIOL-602</t>
   </si>
   <si>
@@ -232,6 +250,9 @@
     <t>ARAMAYO R</t>
   </si>
   <si>
+    <t>7.69%</t>
+  </si>
+  <si>
     <t>CHEM-101</t>
   </si>
   <si>
@@ -250,6 +271,9 @@
     <t>3.85%</t>
   </si>
   <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>CHEM-102</t>
   </si>
   <si>
@@ -268,6 +292,9 @@
     <t>13.75%</t>
   </si>
   <si>
+    <t>3.61%</t>
+  </si>
+  <si>
     <t>CHEM-111</t>
   </si>
   <si>
@@ -295,6 +322,9 @@
     <t>2.08%</t>
   </si>
   <si>
+    <t>2.04%</t>
+  </si>
+  <si>
     <t>CHEM-222</t>
   </si>
   <si>
@@ -331,6 +361,9 @@
     <t>9.33%</t>
   </si>
   <si>
+    <t>9.64%</t>
+  </si>
+  <si>
     <t>CHEM-228</t>
   </si>
   <si>
@@ -349,6 +382,9 @@
     <t>4.81%</t>
   </si>
   <si>
+    <t>7.14%</t>
+  </si>
+  <si>
     <t>CHEM-237</t>
   </si>
   <si>
@@ -364,6 +400,9 @@
     <t>2.86%</t>
   </si>
   <si>
+    <t>7.89%</t>
+  </si>
+  <si>
     <t>CHEM-238</t>
   </si>
   <si>
@@ -373,7 +412,7 @@
     <t>18.52%</t>
   </si>
   <si>
-    <t>3.70%</t>
+    <t>3.57%</t>
   </si>
   <si>
     <t>CHEM-242</t>
@@ -406,6 +445,9 @@
     <t>50.00%</t>
   </si>
   <si>
+    <t>25.00%</t>
+  </si>
+  <si>
     <t>MATH-141</t>
   </si>
   <si>
@@ -418,7 +460,7 @@
     <t>30.00%</t>
   </si>
   <si>
-    <t>25.00%</t>
+    <t>4.76%</t>
   </si>
   <si>
     <t>REIHANI K</t>
@@ -439,6 +481,9 @@
     <t>19.75%</t>
   </si>
   <si>
+    <t>10.99%</t>
+  </si>
+  <si>
     <t>ARORA R</t>
   </si>
   <si>
@@ -451,6 +496,9 @@
     <t>6.94%</t>
   </si>
   <si>
+    <t>2.70%</t>
+  </si>
+  <si>
     <t>MATH-142</t>
   </si>
   <si>
@@ -472,6 +520,9 @@
     <t>6.74%</t>
   </si>
   <si>
+    <t>3.26%</t>
+  </si>
+  <si>
     <t>KHA M</t>
   </si>
   <si>
@@ -484,6 +535,9 @@
     <t>9.68%</t>
   </si>
   <si>
+    <t>8.82%</t>
+  </si>
+  <si>
     <t>YANG Y</t>
   </si>
   <si>
@@ -499,6 +553,9 @@
     <t>6.25%</t>
   </si>
   <si>
+    <t>15.79%</t>
+  </si>
+  <si>
     <t>MATH-151</t>
   </si>
   <si>
@@ -517,6 +574,9 @@
     <t>11.63%</t>
   </si>
   <si>
+    <t>4.44%</t>
+  </si>
+  <si>
     <t>MATH-152</t>
   </si>
   <si>
@@ -550,6 +610,9 @@
     <t>8.77%</t>
   </si>
   <si>
+    <t>3.39%</t>
+  </si>
+  <si>
     <t>MATH-251</t>
   </si>
   <si>
@@ -568,6 +631,9 @@
     <t>14.52%</t>
   </si>
   <si>
+    <t>4.62%</t>
+  </si>
+  <si>
     <t>MATH-304</t>
   </si>
   <si>
@@ -601,6 +667,9 @@
     <t>2.63%</t>
   </si>
   <si>
+    <t>2.56%</t>
+  </si>
+  <si>
     <t>MATH-308</t>
   </si>
   <si>
@@ -616,6 +685,9 @@
     <t>34.48%</t>
   </si>
   <si>
+    <t>3.33%</t>
+  </si>
+  <si>
     <t>BAUDIER F</t>
   </si>
   <si>
@@ -679,6 +751,9 @@
     <t>23.53%</t>
   </si>
   <si>
+    <t>5.56%</t>
+  </si>
+  <si>
     <t>SHI K</t>
   </si>
   <si>
@@ -703,9 +778,6 @@
     <t>SCHIELACK V</t>
   </si>
   <si>
-    <t>7.14%</t>
-  </si>
-  <si>
     <t>MATH-409</t>
   </si>
   <si>
@@ -730,12 +802,18 @@
     <t>47.06%</t>
   </si>
   <si>
+    <t>22.73%</t>
+  </si>
+  <si>
     <t>MATH-423</t>
   </si>
   <si>
     <t>GUSTAFSON R</t>
   </si>
   <si>
+    <t>14.29%</t>
+  </si>
+  <si>
     <t>MATH-433</t>
   </si>
   <si>
@@ -763,6 +841,9 @@
     <t>70.97%</t>
   </si>
   <si>
+    <t>16.22%</t>
+  </si>
+  <si>
     <t>MATH-602</t>
   </si>
   <si>
@@ -829,6 +910,9 @@
     <t>6.78%</t>
   </si>
   <si>
+    <t>10.61%</t>
+  </si>
+  <si>
     <t>PHYS-202</t>
   </si>
   <si>
@@ -913,9 +997,6 @@
     <t>19.44%</t>
   </si>
   <si>
-    <t>5.56%</t>
-  </si>
-  <si>
     <t>2.78%</t>
   </si>
   <si>
@@ -931,6 +1012,9 @@
     <t>1.43%</t>
   </si>
   <si>
+    <t>1.41%</t>
+  </si>
+  <si>
     <t>STAT-302</t>
   </si>
   <si>
@@ -952,6 +1036,9 @@
     <t>4.05%</t>
   </si>
   <si>
+    <t>1.33%</t>
+  </si>
+  <si>
     <t>SINHA S</t>
   </si>
   <si>
@@ -961,6 +1048,9 @@
     <t>2.22%</t>
   </si>
   <si>
+    <t>2.17%</t>
+  </si>
+  <si>
     <t>STAT-303</t>
   </si>
   <si>
@@ -1027,6 +1117,9 @@
     <t>LOMBARD F</t>
   </si>
   <si>
+    <t>5.26%</t>
+  </si>
+  <si>
     <t>STAT-626</t>
   </si>
   <si>
@@ -1045,9 +1138,6 @@
     <t>4.35%</t>
   </si>
   <si>
-    <t>2.17%</t>
-  </si>
-  <si>
     <t>STAT-630</t>
   </si>
   <si>
@@ -1066,6 +1156,9 @@
     <t>JUN M</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>STAT-651</t>
   </si>
   <si>
@@ -1078,6 +1171,9 @@
     <t>46.15%</t>
   </si>
   <si>
+    <t>1.89%</t>
+  </si>
+  <si>
     <t>STAT-652</t>
   </si>
   <si>
@@ -1106,6 +1202,9 @@
   </si>
   <si>
     <t>3.92%</t>
+  </si>
+  <si>
+    <t>1.92%</t>
   </si>
   <si>
     <t>STAT-685</t>
@@ -1149,12 +1248,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1448,15 +1546,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1481,2354 +1579,2621 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3.84</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>2.5783</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>2.5518</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19" t="n">
         <v>2.684</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
         <v>2.18</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C25" t="n">
         <v>2.706</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C28" t="n">
         <v>2.6323</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C31" t="n">
         <v>2.4948</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C34" t="n">
         <v>3.8</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C40" t="n">
         <v>2.385</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>2.062</v>
       </c>
       <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" t="s">
         <v>80</v>
-      </c>
-      <c r="E43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" t="s">
-        <v>73</v>
       </c>
       <c r="C46" t="n">
         <v>3.048</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>79</v>
       </c>
       <c r="C49" t="n">
         <v>2.791</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C52" t="n">
         <v>2.456</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G52" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C55" t="n">
         <v>2.4</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G55" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C58" t="n">
         <v>2.375</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G58" t="s">
+        <v>120</v>
+      </c>
+      <c r="H58" t="s">
+        <v>121</v>
+      </c>
+      <c r="I58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" t="s">
         <v>109</v>
-      </c>
-      <c r="H58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
-        <v>99</v>
       </c>
       <c r="C61" t="n">
         <v>3.178</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G61" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C64" t="n">
         <v>2.9763</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C67" t="n">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C73" t="n">
         <v>2.667</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E73" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C74" t="n">
         <v>3.167</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C77" t="n">
         <v>2.1305</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G77" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C78" t="n">
         <v>1.9163</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H78" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C79" t="n">
         <v>2.3335</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" t="s">
         <v>143</v>
       </c>
-      <c r="F79" t="s">
-        <v>134</v>
-      </c>
       <c r="G79" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H79" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C82" t="n">
         <v>2.4467</v>
       </c>
       <c r="D82" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G82" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H82" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C83" t="n">
         <v>2.7</v>
       </c>
       <c r="D83" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C84" t="n">
         <v>2.1415</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H84" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C85" t="n">
         <v>2.615</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E85" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G85" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="H85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C88" t="n">
         <v>2.3285</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E88" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G88" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H88" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C91" t="n">
         <v>2.3405</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G91" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="H91" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C94" t="n">
         <v>1.9505</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F94" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G94" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="H94" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I94" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C97" t="n">
         <v>1.964</v>
       </c>
       <c r="D97" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H97" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I97" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C100" t="n">
         <v>2.522</v>
       </c>
       <c r="D100" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G100" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="C101" t="n">
         <v>3.375</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="H101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C102" t="n">
         <v>2.763</v>
       </c>
       <c r="D102" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="F102" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G102" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="H102" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C105" t="n">
         <v>3.034</v>
       </c>
       <c r="D105" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="E105" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="F105" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C106" t="n">
         <v>2.662</v>
       </c>
       <c r="D106" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E106" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="F106" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G106" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="H106" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C107" t="n">
         <v>2.745</v>
       </c>
       <c r="D107" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="E107" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="F107" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="G107" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="H107" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C108" t="n">
         <v>2.95</v>
       </c>
       <c r="D108" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="G108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>239</v>
+      </c>
+      <c r="I108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C109" t="n">
         <v>1.8</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F109" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G109" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H109" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C112" t="n">
         <v>2.882</v>
       </c>
       <c r="D112" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E112" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F112" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G112" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I112" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C113" t="n">
         <v>2.818</v>
       </c>
       <c r="D113" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G113" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H113" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C116" t="n">
         <v>2.429</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F116" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G116" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C119" t="n">
         <v>3.2</v>
       </c>
       <c r="D119" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F119" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="C122" t="n">
         <v>2.486</v>
       </c>
       <c r="D122" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F122" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G122" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C125" t="n">
         <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="E125" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F125" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C128" t="n">
         <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G128" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I128" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="C131" t="n">
         <v>3.231</v>
       </c>
       <c r="D131" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="F131" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="C137" t="n">
         <v>3.71</v>
       </c>
       <c r="D137" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="E137" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="C140" t="n">
         <v>3.625</v>
       </c>
       <c r="D140" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="E140" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C143" t="n">
         <v>3.926</v>
       </c>
       <c r="D143" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="E143" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C146" t="n">
         <v>3.75</v>
       </c>
       <c r="D146" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H146" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H152" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E153" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G153" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H153" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C156" t="n">
         <v>2.9423</v>
       </c>
       <c r="D156" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="E156" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G156" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="H156" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I156" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="C159" t="n">
         <v>2.6513</v>
       </c>
       <c r="D159" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E159" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="G159" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="H159" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="C162" t="n">
         <v>2.179</v>
       </c>
       <c r="D162" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="E162" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F162" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G162" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H162" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>309</v>
+      </c>
+      <c r="I162" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C163" t="n">
         <v>2.5</v>
       </c>
       <c r="D163" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E163" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F163" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G163" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H163" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I163" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C166" t="n">
         <v>2.435</v>
       </c>
       <c r="D166" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E166" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="H166" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I166" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="C169" t="n">
         <v>2.812</v>
       </c>
       <c r="D169" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E169" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="F169" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E172" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G172" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H172" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I172" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="C173" t="n">
         <v>3.5</v>
       </c>
       <c r="D173" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="E173" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G173" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H173" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I173" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="C176" t="n">
         <v>2.764</v>
       </c>
       <c r="D176" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="E176" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="F176" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="G176" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="H176" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>327</v>
+      </c>
+      <c r="I176" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="C177" t="n">
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E177" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F177" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="G177" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H177" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>331</v>
+      </c>
+      <c r="I177" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="C180" t="n">
         <v>2.622</v>
       </c>
       <c r="D180" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="E180" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="G180" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="H180" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>339</v>
+      </c>
+      <c r="I180" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="C181" t="n">
         <v>3.089</v>
       </c>
       <c r="D181" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E181" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G181" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="H181" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I181" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C184" t="n">
         <v>2.75</v>
       </c>
       <c r="D184" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E184" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G184" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="H184" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I184" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C185" t="n">
         <v>3.053</v>
       </c>
       <c r="D185" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="E185" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="G185" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="H185" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C186" t="n">
         <v>2.778</v>
       </c>
       <c r="D186" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E186" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G186" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C187" t="n">
         <v>2.794</v>
       </c>
       <c r="D187" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="E187" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="F187" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="G187" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="H187" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="C190" t="n">
         <v>3.424</v>
       </c>
       <c r="D190" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="E190" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="G190" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H190" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I190" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C193" t="n">
         <v>3.144</v>
       </c>
       <c r="D193" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E193" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F193" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="G193" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H193" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I193" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="C196" t="n">
         <v>2.9437</v>
       </c>
       <c r="D196" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="E196" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="G196" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="H196" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>344</v>
+      </c>
+      <c r="I196" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="C199" t="n">
         <v>3.533</v>
       </c>
       <c r="D199" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="E199" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G199" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H199" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I199" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="B202" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="C202" t="n">
         <v>3.0455</v>
       </c>
       <c r="D202" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="E202" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F202" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G202" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="H202" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>239</v>
+      </c>
+      <c r="I202" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C205" t="n">
         <v>3.289</v>
       </c>
       <c r="D205" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="E205" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F205" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G205" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H205" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>343</v>
+      </c>
+      <c r="I205" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="C206" t="n">
         <v>3.423</v>
       </c>
       <c r="D206" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="E206" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F206" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G206" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H206" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I206" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="C209" t="n">
         <v>2.88</v>
       </c>
       <c r="D209" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E209" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G209" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H209" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I209" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C212" t="n">
         <v>3.718</v>
       </c>
       <c r="D212" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="E212" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G212" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H212" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I212" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="C215" t="n">
         <v>3.7557</v>
       </c>
       <c r="D215" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="E215" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="F215" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="G215" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H215" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I215" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="C218" t="n">
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E218" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G218" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H218" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I218" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
